--- a/0MyProject_Quant/时间动量策略(A大于B)/0.研究结果.xlsx
+++ b/0MyProject_Quant/时间动量策略(A大于B)/0.研究结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011\PycharmProjects\PythonLearning\0MyProject_Quant\时间动量策略(A大于B)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E35BBC-8D33-4A8A-9424-DDDA7FB99FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FE3AB-A5FF-4B7B-A1B9-069788EDE291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4757" yWindow="3266" windowWidth="16457" windowHeight="8631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>EURUSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>direct_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,8 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,102 +416,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>5.33</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>485</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>215</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>6.56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/0MyProject_Quant/时间动量策略(A大于B)/0.研究结果.xlsx
+++ b/0MyProject_Quant/时间动量策略(A大于B)/0.研究结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011\PycharmProjects\PythonLearning\0MyProject_Quant\时间动量策略(A大于B)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FE3AB-A5FF-4B7B-A1B9-069788EDE291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32DB951-37CA-4E9C-A2F0-029A0E046553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>EURUSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>direct_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,7 +79,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>para1</t>
+    <t>indi_para0</t>
+  </si>
+  <si>
+    <t>indi_para1</t>
+  </si>
+  <si>
+    <t>indi_start</t>
+  </si>
+  <si>
+    <t>indi_end</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +121,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,14 +145,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -428,12 +467,17 @@
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.35546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.92578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,20 +499,29 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,20 +543,29 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1">
         <v>-8</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>5.33</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2">
         <v>485</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,18 +587,116 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>75</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>6.56</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1">
         <v>141</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>202</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <v>-8.44</v>
+      </c>
+      <c r="K4">
+        <v>3.79</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>203</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-5.7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
